--- a/TestData/LoginDataNew.xlsx
+++ b/TestData/LoginDataNew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OrangeHRM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA Python project\PythonSeleniumOHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{771175B7-FF15-454B-9FB3-A33B45A0DF0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F0AE6D-C81D-4FDB-9815-B930E02506CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18375" yWindow="2940" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -52,16 +52,13 @@
   </si>
   <si>
     <t>admin12a</t>
-  </si>
-  <si>
-    <t>1qaz@WSX#EDC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,14 +76,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,18 +119,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,16 +409,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,18 +429,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -465,7 +451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -476,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -485,7 +471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -494,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -503,10 +489,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E0ECB9E9-F1BB-4973-8AE5-7AE32F615F90}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>